--- a/documentation/indicators.xlsx
+++ b/documentation/indicators.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenvo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -24,13 +30,13 @@
     <t>Codename</t>
   </si>
   <si>
-    <t xml:space="preserve">Default Params</t>
+    <t>Default Params</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Relative Strength Index</t>
+    <t>Relative Strength Index</t>
   </si>
   <si>
     <t>rsi</t>
@@ -39,37 +45,37 @@
     <t>(14)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stochastic (fast)</t>
+    <t>Stochastic (fast)</t>
   </si>
   <si>
     <t>stoch</t>
   </si>
   <si>
-    <t xml:space="preserve">(14, 3, 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic RSI (fast)</t>
+    <t>(14, 3, 1)</t>
+  </si>
+  <si>
+    <t>Stochastic RSI (fast)</t>
   </si>
   <si>
     <t>stochrsi</t>
   </si>
   <si>
-    <t xml:space="preserve">(3, 3, 14, 14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Directional Index</t>
+    <t>(3, 3, 14, 14)</t>
+  </si>
+  <si>
+    <t>Average Directional Index</t>
   </si>
   <si>
     <t>adx</t>
   </si>
   <si>
-    <t xml:space="preserve">Moving Average Convergence / Divergence</t>
+    <t>Moving Average Convergence / Divergence</t>
   </si>
   <si>
     <t>macd</t>
   </si>
   <si>
-    <t xml:space="preserve">(12, 27)</t>
+    <t>(12, 27)</t>
   </si>
   <si>
     <t xml:space="preserve">Commodity Channel Index </t>
@@ -81,7 +87,7 @@
     <t>(20)</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome Oscillator</t>
+    <t>Awesome Oscillator</t>
   </si>
   <si>
     <t>ao</t>
@@ -90,7 +96,7 @@
     <t>NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">Momentum Indicator</t>
+    <t>Momentum Indicator</t>
   </si>
   <si>
     <t>mom</t>
@@ -99,31 +105,31 @@
     <t>(10)</t>
   </si>
   <si>
-    <t xml:space="preserve">Williams Percent Range</t>
+    <t>Williams Percent Range</t>
   </si>
   <si>
     <t>williamsr</t>
   </si>
   <si>
-    <t xml:space="preserve">Bull Bear Power</t>
+    <t>Bull Bear Power</t>
   </si>
   <si>
     <t>bullbear</t>
   </si>
   <si>
-    <t xml:space="preserve">Ultimate Oscillator</t>
+    <t>Ultimate Oscillator</t>
   </si>
   <si>
     <t>uo</t>
   </si>
   <si>
-    <t xml:space="preserve">(7, 14, 28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moving Averages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Moving Average</t>
+    <t>(7, 14, 28)</t>
+  </si>
+  <si>
+    <t>Moving Averages</t>
+  </si>
+  <si>
+    <t>Simple Moving Average</t>
   </si>
   <si>
     <t>sma</t>
@@ -141,7 +147,7 @@
     <t>(200)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exponential Moving Average</t>
+    <t>Exponential Moving Average</t>
   </si>
   <si>
     <t>ema</t>
@@ -151,57 +157,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="14"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,50 +231,334 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyFont="1" applyFill="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -290,13 +572,13 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvPr id="4" name="Rechteck 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="0" flipV="0">
+        <a:xfrm>
           <a:off x="9782174" y="4086224"/>
           <a:ext cx="4648199" cy="581024"/>
         </a:xfrm>
@@ -329,7 +611,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" upright="0" compatLnSpc="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:defRPr/>
@@ -358,10 +641,6 @@
             </a:rPr>
             <a:t>mình sẽ support luôn</a:t>
           </a:r>
-          <a:endParaRPr>
-            <a:latin typeface="Open Sans"/>
-            <a:ea typeface="Open Sans"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -380,304 +659,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="$B$3:$G$13" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="No"/>
-    <tableColumn id="2" name="Oscillator"/>
-    <tableColumn id="3" name="Codename"/>
-    <tableColumn id="4" name="Default Params"/>
-    <tableColumn id="5" name="Status"/>
-    <tableColumn id="6" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <tableColumns count="5">
+    <tableColumn id="1" name="No" dataDxfId="5"/>
+    <tableColumn id="2" name="Oscillator" dataDxfId="4"/>
+    <tableColumn id="3" name="Codename" dataDxfId="3"/>
+    <tableColumn id="4" name="Default Params" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -880,49 +875,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625"/>
-    <col min="2" max="2" style="2" width="9.140625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="54.8515625"/>
-    <col bestFit="1" min="4" max="4" style="1" width="14.5234375"/>
-    <col customWidth="1" min="5" max="5" style="3" width="19.8515625"/>
-    <col customWidth="1" min="6" max="6" style="1" width="20.8515625"/>
-    <col min="7" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1"/>
+    <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="4"/>
     </row>
-    <row ht="18.75" r="3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row ht="16.5" r="4">
-      <c r="B4" s="8">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -934,10 +931,10 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row ht="16.5" r="5">
-      <c r="B5" s="8">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -949,10 +946,10 @@
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row ht="16.5" r="6">
-      <c r="B6" s="8">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -964,10 +961,10 @@
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row ht="16.5" r="7">
-      <c r="B7" s="8">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -979,10 +976,10 @@
       <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row ht="16.5" r="8">
-      <c r="B8" s="8">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -994,10 +991,10 @@
       <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row ht="16.5" r="9">
-      <c r="B9" s="8">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1009,10 +1006,10 @@
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row ht="16.5" r="10">
-      <c r="B10" s="8">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1024,10 +1021,10 @@
       <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row ht="16.5" r="11">
-      <c r="B11" s="8">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1039,10 +1036,10 @@
       <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row ht="16.5" r="12">
-      <c r="B12" s="8">
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1054,10 +1051,10 @@
       <c r="E12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row ht="16.5" r="13">
-      <c r="B13" s="8">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1069,38 +1066,32 @@
       <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row ht="16.5" r="14">
-      <c r="B14" s="8">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row ht="15" r="15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row ht="15" r="16">
-      <c r="B16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row ht="15" r="17"/>
-    <row ht="15" r="18">
-      <c r="C18" s="1"/>
-    </row>
-    <row ht="18.75" r="20">
+      <c r="F14" s="22"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="16.5" r="21">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>1</v>
       </c>
@@ -1132,7 +1123,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row ht="16.5" r="22">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>2</v>
       </c>
@@ -1147,7 +1138,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row ht="16.5" r="23">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>3</v>
       </c>
@@ -1162,7 +1153,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row ht="16.5" r="24">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>4</v>
       </c>
@@ -1177,7 +1168,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row ht="16.5" r="25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>5</v>
       </c>
@@ -1192,7 +1183,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row ht="16.5" r="26">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>6</v>
       </c>
@@ -1207,7 +1198,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row ht="16.5" r="27">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>7</v>
       </c>
@@ -1222,7 +1213,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row ht="16.5" r="28">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>8</v>
       </c>
@@ -1237,7 +1228,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row ht="16.5" r="29">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>9</v>
       </c>
@@ -1252,7 +1243,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row ht="16.5" r="30">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>10</v>
       </c>
@@ -1267,7 +1258,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row ht="16.5" r="31">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>11</v>
       </c>
@@ -1282,7 +1273,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row ht="16.5" r="32">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>12</v>
       </c>
@@ -1297,11 +1288,8 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row ht="15" r="33">
-      <c r="D33" s="1"/>
-    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>

--- a/documentation/indicators.xlsx
+++ b/documentation/indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenvo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
   </bookViews>
@@ -387,27 +382,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -522,6 +499,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="1"/>
@@ -536,12 +529,14 @@
         <right style="thin">
           <color theme="1"/>
         </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -659,13 +654,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="5"/>
-    <tableColumn id="2" name="Oscillator" dataDxfId="4"/>
-    <tableColumn id="3" name="Codename" dataDxfId="3"/>
-    <tableColumn id="4" name="Default Params" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="1" name="No" dataDxfId="4"/>
+    <tableColumn id="2" name="Oscillator" dataDxfId="3"/>
+    <tableColumn id="3" name="Codename" dataDxfId="2"/>
+    <tableColumn id="4" name="Default Params" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,10 +879,10 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>

--- a/documentation/indicators.xlsx
+++ b/documentation/indicators.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\sbCryptoWork\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -146,17 +151,30 @@
   </si>
   <si>
     <t>ema</t>
+  </si>
+  <si>
+    <t>=working</t>
+  </si>
+  <si>
+    <t>=not yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -325,64 +349,66 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -563,13 +589,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
+      <xdr:colOff>220978</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3"/>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -613,7 +645,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr/>
             <a:t>SMA và EMA vì quá thông dụng nên những parameters sau: </a:t>
           </a:r>
           <a:endParaRPr>
@@ -626,7 +657,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr/>
             <a:t>10, 20, 30, 50, 100, 200 </a:t>
           </a:r>
           <a:r>
@@ -654,13 +684,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="4"/>
-    <tableColumn id="2" name="Oscillator" dataDxfId="3"/>
-    <tableColumn id="3" name="Codename" dataDxfId="2"/>
-    <tableColumn id="4" name="Default Params" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oscillator" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codename" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Default Params" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,28 +905,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1"/>
-    <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1"/>
+    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -913,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -927,8 +959,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -942,8 +978,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="11"/>
+      <c r="I5" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -958,7 +998,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -973,7 +1013,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="19">
         <v>5</v>
       </c>
@@ -988,7 +1028,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="19">
         <v>6</v>
       </c>
@@ -1003,7 +1043,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -1018,7 +1058,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
         <v>8</v>
       </c>
@@ -1033,7 +1073,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="19">
         <v>9</v>
       </c>
@@ -1048,7 +1088,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="19">
         <v>10</v>
       </c>
@@ -1063,7 +1103,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -1079,14 +1119,14 @@
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="23"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="24"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="8">
         <v>1</v>
       </c>
@@ -1118,7 +1158,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="8">
         <v>2</v>
       </c>
@@ -1133,7 +1173,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="8">
         <v>3</v>
       </c>
@@ -1148,7 +1188,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="8">
         <v>4</v>
       </c>
@@ -1163,7 +1203,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="8">
         <v>5</v>
       </c>
@@ -1178,7 +1218,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="8">
         <v>6</v>
       </c>
@@ -1193,7 +1233,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="8">
         <v>7</v>
       </c>
@@ -1208,7 +1248,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="8">
         <v>8</v>
       </c>
@@ -1223,7 +1263,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
         <v>9</v>
       </c>
@@ -1238,7 +1278,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="8">
         <v>10</v>
       </c>
@@ -1253,7 +1293,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="8">
         <v>11</v>
       </c>
@@ -1268,7 +1308,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="8">
         <v>12</v>
       </c>
@@ -1286,10 +1326,10 @@
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/documentation/indicators.xlsx
+++ b/documentation/indicators.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\sbCryptoWork\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE9F36C-4D64-46D0-B4A6-03FFD299D83E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -157,13 +158,16 @@
   </si>
   <si>
     <t>=not yet</t>
+  </si>
+  <si>
+    <t>DHM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +210,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -222,7 +232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -351,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -403,8 +413,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -908,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -919,7 +930,7 @@
     <col min="3" max="3" width="54.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="1" bestFit="1"/>
     <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
     <col min="7" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
@@ -959,8 +970,8 @@
         <v>7</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -979,7 +990,7 @@
       </c>
       <c r="F5" s="20"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1156,7 +1167,9 @@
       <c r="E21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="8">
@@ -1171,7 +1184,7 @@
       <c r="E22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="8">
@@ -1186,7 +1199,7 @@
       <c r="E23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="8">
@@ -1201,7 +1214,7 @@
       <c r="E24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="8">
@@ -1216,7 +1229,7 @@
       <c r="E25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="8">
@@ -1231,7 +1244,7 @@
       <c r="E26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="8">
